--- a/database_excel_files/Performance.xlsx
+++ b/database_excel_files/Performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0xd1rac\Code\SC2002_Lab_Project\database_excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/c220096_e_ntu_edu_sg/Documents/Desktop/SC2002_Lab_Project-YQ1/database_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B392BAC1-FF8C-4AAD-933F-ACC4C85624BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B392BAC1-FF8C-4AAD-933F-ACC4C85624BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ADAB431-5B50-4756-B4FE-C8BCE8210109}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10890" windowWidth="18240" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="984" windowWidth="20376" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -42,15 +42,6 @@
     <t>isProcessed</t>
   </si>
   <si>
-    <t>performance1</t>
-  </si>
-  <si>
-    <t>Well done in teamwork</t>
-  </si>
-  <si>
-    <t>Time management</t>
-  </si>
-  <si>
     <t>performance2</t>
   </si>
   <si>
@@ -60,7 +51,37 @@
     <t>None</t>
   </si>
   <si>
-    <t>Outstanding teamwork</t>
+    <t>pp1</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>asdfasfdl</t>
+  </si>
+  <si>
+    <t>YUQUAN</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>akudsad</t>
+  </si>
+  <si>
+    <t>YUQUANYOU</t>
+  </si>
+  <si>
+    <t>asdasdsad</t>
+  </si>
+  <si>
+    <t>asdASd</t>
+  </si>
+  <si>
+    <t>YUQUANa</t>
+  </si>
+  <si>
+    <t>YUQUANYOUa</t>
   </si>
 </sst>
 </file>
@@ -379,14 +400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" customWidth="true" width="16.28515625"/>
     <col min="3" max="3" customWidth="true" width="28.7109375"/>
     <col min="4" max="4" customWidth="true" width="26.5703125"/>
     <col min="5" max="5" customWidth="true" width="27.42578125"/>
@@ -411,37 +433,173 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>5.0</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="0">
+        <v>5</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" t="b" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>5.0</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="0">
+        <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E4" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E5" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>1120.0</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E6" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E7" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>1120.0</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E8" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E9" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>1120.0</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E10" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E11" t="b" s="0">
         <v>0</v>
       </c>
     </row>
